--- a/biology/Botanique/Parc_botanique_et_zoologique_de_Tsimbazaza/Parc_botanique_et_zoologique_de_Tsimbazaza.xlsx
+++ b/biology/Botanique/Parc_botanique_et_zoologique_de_Tsimbazaza/Parc_botanique_et_zoologique_de_Tsimbazaza.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le parc botanique et zoologique de Tsimbazaza est un parc du quartier de Fiadanana à Antananarivo est un lieu de distraction ainsi qu’un endroit de conservation des faunes et des flores de Madagascar[1],[2]. 
+Le parc botanique et zoologique de Tsimbazaza est un parc du quartier de Fiadanana à Antananarivo est un lieu de distraction ainsi qu’un endroit de conservation des faunes et des flores de Madagascar,. 
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce parc a été fondé en 1925 par les colons français. Mais avant cela, le roi Radama Ier avait déjà creusé le lac pour le bain des soldats. 
 </t>
@@ -543,7 +557,9 @@
           <t>Départements</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Pour le bon fonctionnement de ce parc, différents départements se mobilisent : 
 Département administratif et financier qui s’occupe de la gestion des budgets, des personnels et de la logistique.
@@ -579,7 +595,9 @@
           <t>Parc zoologique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Un parc doit protéger et conserver les faunes et flores locales. Madagascar est un pays qui contient des animaux d’espèces rares. Les lémuriens sont l’un des animaux qui attirent les visiteurs dans cet endroit. Dans ce parc, les animaux sont répartis selon leur espèce parce qu’il y a des animaux qui ne supportent pas les bruits et d’autres qui ne sortent que la nuit.
 </t>
@@ -610,7 +628,9 @@
           <t>Parc botanique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce parc est un espace vert dans la capitale de Madagascar. Chaque région de ce pays est représentée par des végétations qui la différencient des autres. Par exemple, la région de Tamatave est représentée par le « ravinala » ou l’arbre du voyageur. Et la partie Sud par des didieracea et des pachypodiums.   
 Près du lac, on peut trouver des nymphéas aux fleurs violettes, des jacinthes d’eau et des touffes de zozoro. Au nord du parc, on constate les types de fougères telles que l’ombrière, le cyathea et les orchidées endémiques. En contrebas, il y a  des palmeraies qui regroupent des espèces malgaches et étrangères comme le raphia et le ravinala et d’autre côté, on aperçoit des baobabs et des plantes xérophiles qui représentent la partie la plus aride de Madagascar.
